--- a/자유수강권/플룻(수강).xlsx
+++ b/자유수강권/플룻(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="59">
   <si>
     <t>주야</t>
   </si>
@@ -70,6 +70,12 @@
     <t>3학년</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>김소민</t>
+  </si>
+  <si>
     <t>김태은</t>
   </si>
   <si>
@@ -88,9 +94,6 @@
     <t>권사랑</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>김지원</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>5학년</t>
+  </si>
+  <si>
+    <t>김오은</t>
   </si>
   <si>
     <t>이수민</t>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,10 +659,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -679,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
@@ -702,13 +708,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -728,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
@@ -754,13 +760,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
@@ -780,13 +786,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -806,13 +812,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -832,13 +838,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -855,16 +861,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -881,16 +887,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -907,16 +913,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -933,16 +939,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -959,16 +965,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -985,16 +991,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
@@ -1011,13 +1017,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>47</v>
@@ -1037,16 +1043,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1063,16 +1069,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1089,16 +1095,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1115,16 +1121,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>13</v>
@@ -1141,24 +1147,76 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.5">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.5">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
